--- a/NCAA/Women/Soccer.xlsx
+++ b/NCAA/Women/Soccer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dengjiahao\Desktop\Athlete\NCAA\Women\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\northing\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743E55D9-53C5-45DD-A5F7-451BC4F03B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13E872CA-B7FE-4099-BF6B-6232C798FEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,48 +25,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
+  <si>
+    <t>NCAA-Standing</t>
+  </si>
+  <si>
+    <t>NCAA Teams(s)</t>
+  </si>
   <si>
     <t>MWC Tournament  Champion</t>
   </si>
   <si>
-    <t>NCAA Teams(s)</t>
-  </si>
-  <si>
-    <t>NCAA-Standing</t>
+    <t>Lake Forest</t>
+  </si>
+  <si>
+    <t>Grinnell</t>
+  </si>
+  <si>
+    <t>Beloit</t>
+  </si>
+  <si>
+    <t>No Tournament (COVID)</t>
+  </si>
+  <si>
+    <t>Monmouth</t>
+  </si>
+  <si>
+    <t>Knox</t>
+  </si>
+  <si>
+    <t>Carroll</t>
+  </si>
+  <si>
+    <t>St. Norbert</t>
   </si>
   <si>
     <t>Lawrence</t>
   </si>
   <si>
-    <t>Lake Forest</t>
-  </si>
-  <si>
-    <t>Grinnell</t>
-  </si>
-  <si>
-    <t>Beloit</t>
-  </si>
-  <si>
-    <t>No Tournament (COVID)</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Monmouth</t>
-  </si>
-  <si>
-    <t>Knox</t>
-  </si>
-  <si>
-    <t>Carroll</t>
-  </si>
-  <si>
-    <t>St. Norbert</t>
-  </si>
-  <si>
-    <t>Year</t>
+    <t>Total Round</t>
   </si>
 </sst>
 </file>
@@ -384,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,328 +395,395 @@
     <col min="1" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2024</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2022</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2020</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2018</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2017</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2016</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2015</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2014</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2013</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2012</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2011</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2010</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2009</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2008</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2007</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2006</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2005</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2004</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2003</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>1</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
